--- a/data/pm10_pszczyna.xlsx
+++ b/data/pm10_pszczyna.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="1" r:id="rId1"/>
     <sheet name="2016" sheetId="2" r:id="rId2"/>
     <sheet name="2017" sheetId="3" r:id="rId3"/>
     <sheet name="2018" sheetId="4" r:id="rId4"/>
+    <sheet name="2019" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,12 +28,813 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="269">
   <si>
     <t>data</t>
   </si>
   <si>
     <t>pm10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	32,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	13,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	20,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	32,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	30,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	21,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	129,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	29,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	104,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	112,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	64,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	39,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	13,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	12,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	20,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	28,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	23,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	16,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	115,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	224,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	248,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	196,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	65,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	40,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	65,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	61,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	33,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	118,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	61,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	106,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	226,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	137,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	25,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	72,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	42,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	99,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	116,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	19,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	38,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	58,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	73,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	103,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	75,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	174,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	181,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	56,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	46,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	21,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	60,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	91,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	74,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	77,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	45,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	83,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	85,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	32,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	21,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	13,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	50,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	33,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	16,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	15,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	14,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	29,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	16,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	16,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	13,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	19,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	23,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	28,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	52,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	124,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	80,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	97,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	51,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	30,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	51,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	79,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	81,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	127,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	56,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	25,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	39,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	52,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	56,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	62,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	57,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	38,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	56,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	58,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	35,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	42,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	32,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	50,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	48,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	43,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	64,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	94,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	82,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	38,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	27,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	21,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	31,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	52,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	20,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	11,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	26,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	27,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	26,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	29,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	17,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	19,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	37,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	35,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	25,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	17,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	31,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	15,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	18,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	16,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	27,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	30,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	36,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	22,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	18,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	19,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	12,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	12,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	27,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	24,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	23,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	15,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	18,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	35,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	17,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	15,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	21,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	30,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	30,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	32,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	32,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	41,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	38,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	20,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	24,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	23,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	20,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	14,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	18,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	24,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	26,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	19,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	31,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	19,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	17,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	27,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	28,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	19,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	14,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	14,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	18,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	19,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	22,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	20,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	24,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	23,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	22,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	37,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	24,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	28,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	33,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	26,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	22,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	15,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	22,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	23,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	17,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	13,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	17,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	18,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	25,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	18,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	27,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	27,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	41,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	48,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	29,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	36,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	24,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	26,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	28,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	14,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	21,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	21,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	11,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	25,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	16,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	34,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	44,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	58,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	55,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	45,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	13,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	10,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	16,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	63,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	64,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	24,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	12,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	13,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	18,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	71,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	72,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	79,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	86,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	81,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	61,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	101,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	98,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	93,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	85,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	102,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	96,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	51,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	79,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	199,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	93,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	33,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	16,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	47,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	131,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	72,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	38,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	68,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	52,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	35,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	53,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	50,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	68,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	64,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	68,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	39,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	62,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	49,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	63,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	78,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	42,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	106,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	72,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	78,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	97,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	34,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	28,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	53,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	59,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	178,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	238,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	96,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	84,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	228,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	116,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	38,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	46,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	49,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	28,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	28,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	20,1	</t>
   </si>
 </sst>
 </file>
@@ -76,13 +878,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -3294,7 +4097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -9130,7 +9933,7 @@
   <dimension ref="A1:B366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B366"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12060,4 +12863,2918 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B366"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>43466</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>43467</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>43468</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>43469</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>43470</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>43471</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>43472</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>43473</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>43474</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>43475</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>43476</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>43477</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>43478</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>43479</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>43480</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>43481</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>43482</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>43483</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>43484</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>43485</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>43486</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>43487</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>43488</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>43489</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>43490</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>43491</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>43492</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>43493</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>43494</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>43495</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>43496</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>43497</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>43498</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>43499</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>43500</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>43501</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>43502</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>43503</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>43504</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>43505</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>43506</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>43507</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>43508</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>43509</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>43510</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>43511</v>
+      </c>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>43512</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>43513</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>43514</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>43515</v>
+      </c>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>43516</v>
+      </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>43517</v>
+      </c>
+      <c r="B53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>43518</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>43519</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>43520</v>
+      </c>
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>43521</v>
+      </c>
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>43523</v>
+      </c>
+      <c r="B59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>43524</v>
+      </c>
+      <c r="B60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>43525</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>43526</v>
+      </c>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>43527</v>
+      </c>
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>43528</v>
+      </c>
+      <c r="B64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>43529</v>
+      </c>
+      <c r="B65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>43530</v>
+      </c>
+      <c r="B66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>43531</v>
+      </c>
+      <c r="B67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>43532</v>
+      </c>
+      <c r="B68" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>43533</v>
+      </c>
+      <c r="B69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>43534</v>
+      </c>
+      <c r="B70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>43535</v>
+      </c>
+      <c r="B71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>43536</v>
+      </c>
+      <c r="B72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>43537</v>
+      </c>
+      <c r="B73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>43538</v>
+      </c>
+      <c r="B74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>43539</v>
+      </c>
+      <c r="B75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>43540</v>
+      </c>
+      <c r="B76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>43541</v>
+      </c>
+      <c r="B77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>43542</v>
+      </c>
+      <c r="B78" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>43543</v>
+      </c>
+      <c r="B79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>43544</v>
+      </c>
+      <c r="B80" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>43545</v>
+      </c>
+      <c r="B81" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>43546</v>
+      </c>
+      <c r="B82" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>43547</v>
+      </c>
+      <c r="B83" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>43548</v>
+      </c>
+      <c r="B84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>43549</v>
+      </c>
+      <c r="B85" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>43550</v>
+      </c>
+      <c r="B86" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>43551</v>
+      </c>
+      <c r="B87" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>43552</v>
+      </c>
+      <c r="B88" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>43553</v>
+      </c>
+      <c r="B89" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>43554</v>
+      </c>
+      <c r="B90" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>43555</v>
+      </c>
+      <c r="B91" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <v>43556</v>
+      </c>
+      <c r="B92" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>43557</v>
+      </c>
+      <c r="B93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>43558</v>
+      </c>
+      <c r="B94" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <v>43559</v>
+      </c>
+      <c r="B95" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>43560</v>
+      </c>
+      <c r="B96" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>43561</v>
+      </c>
+      <c r="B97" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <v>43562</v>
+      </c>
+      <c r="B98" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <v>43563</v>
+      </c>
+      <c r="B99" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>43564</v>
+      </c>
+      <c r="B100" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <v>43565</v>
+      </c>
+      <c r="B101" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
+        <v>43566</v>
+      </c>
+      <c r="B102" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
+        <v>43567</v>
+      </c>
+      <c r="B103" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
+        <v>43568</v>
+      </c>
+      <c r="B104" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
+        <v>43569</v>
+      </c>
+      <c r="B105" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
+        <v>43570</v>
+      </c>
+      <c r="B106" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
+        <v>43571</v>
+      </c>
+      <c r="B107" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
+        <v>43572</v>
+      </c>
+      <c r="B108" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="6">
+        <v>43573</v>
+      </c>
+      <c r="B109" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="6">
+        <v>43574</v>
+      </c>
+      <c r="B110" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="6">
+        <v>43575</v>
+      </c>
+      <c r="B111" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <v>43576</v>
+      </c>
+      <c r="B112" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="6">
+        <v>43577</v>
+      </c>
+      <c r="B113" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <v>43578</v>
+      </c>
+      <c r="B114" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <v>43579</v>
+      </c>
+      <c r="B115" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="6">
+        <v>43580</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="6">
+        <v>43581</v>
+      </c>
+      <c r="B117" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="6">
+        <v>43582</v>
+      </c>
+      <c r="B118" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="6">
+        <v>43583</v>
+      </c>
+      <c r="B119" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="6">
+        <v>43584</v>
+      </c>
+      <c r="B120" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="6">
+        <v>43585</v>
+      </c>
+      <c r="B121" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
+        <v>43586</v>
+      </c>
+      <c r="B122" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="6">
+        <v>43587</v>
+      </c>
+      <c r="B123" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
+        <v>43588</v>
+      </c>
+      <c r="B124" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="6">
+        <v>43589</v>
+      </c>
+      <c r="B125" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="6">
+        <v>43590</v>
+      </c>
+      <c r="B126" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="6">
+        <v>43591</v>
+      </c>
+      <c r="B127" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="6">
+        <v>43592</v>
+      </c>
+      <c r="B128" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="6">
+        <v>43593</v>
+      </c>
+      <c r="B129" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="6">
+        <v>43594</v>
+      </c>
+      <c r="B130" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="6">
+        <v>43595</v>
+      </c>
+      <c r="B131" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="6">
+        <v>43596</v>
+      </c>
+      <c r="B132" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="6">
+        <v>43597</v>
+      </c>
+      <c r="B133" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="6">
+        <v>43598</v>
+      </c>
+      <c r="B134" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="6">
+        <v>43599</v>
+      </c>
+      <c r="B135" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="6">
+        <v>43600</v>
+      </c>
+      <c r="B136" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="6">
+        <v>43601</v>
+      </c>
+      <c r="B137" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="6">
+        <v>43602</v>
+      </c>
+      <c r="B138" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="6">
+        <v>43603</v>
+      </c>
+      <c r="B139" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="6">
+        <v>43604</v>
+      </c>
+      <c r="B140" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="6">
+        <v>43605</v>
+      </c>
+      <c r="B141" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="6">
+        <v>43606</v>
+      </c>
+      <c r="B142" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="6">
+        <v>43607</v>
+      </c>
+      <c r="B143" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="6">
+        <v>43608</v>
+      </c>
+      <c r="B144" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="6">
+        <v>43609</v>
+      </c>
+      <c r="B145" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="6">
+        <v>43610</v>
+      </c>
+      <c r="B146" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="6">
+        <v>43611</v>
+      </c>
+      <c r="B147" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="6">
+        <v>43612</v>
+      </c>
+      <c r="B148" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="6">
+        <v>43613</v>
+      </c>
+      <c r="B149" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="6">
+        <v>43614</v>
+      </c>
+      <c r="B150" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="6">
+        <v>43615</v>
+      </c>
+      <c r="B151" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="6">
+        <v>43616</v>
+      </c>
+      <c r="B152" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="6">
+        <v>43617</v>
+      </c>
+      <c r="B153" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="6">
+        <v>43618</v>
+      </c>
+      <c r="B154" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="6">
+        <v>43619</v>
+      </c>
+      <c r="B155" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="6">
+        <v>43620</v>
+      </c>
+      <c r="B156" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="6">
+        <v>43621</v>
+      </c>
+      <c r="B157" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="6">
+        <v>43622</v>
+      </c>
+      <c r="B158" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="6">
+        <v>43623</v>
+      </c>
+      <c r="B159" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="6">
+        <v>43624</v>
+      </c>
+      <c r="B160" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="6">
+        <v>43625</v>
+      </c>
+      <c r="B161" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="6">
+        <v>43626</v>
+      </c>
+      <c r="B162" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="6">
+        <v>43627</v>
+      </c>
+      <c r="B163" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="6">
+        <v>43628</v>
+      </c>
+      <c r="B164" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="6">
+        <v>43629</v>
+      </c>
+      <c r="B165" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="6">
+        <v>43630</v>
+      </c>
+      <c r="B166" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="6">
+        <v>43631</v>
+      </c>
+      <c r="B167" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="6">
+        <v>43632</v>
+      </c>
+      <c r="B168" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="6">
+        <v>43633</v>
+      </c>
+      <c r="B169" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="6">
+        <v>43634</v>
+      </c>
+      <c r="B170" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="6">
+        <v>43635</v>
+      </c>
+      <c r="B171" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="6">
+        <v>43636</v>
+      </c>
+      <c r="B172" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="6">
+        <v>43637</v>
+      </c>
+      <c r="B173" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="6">
+        <v>43638</v>
+      </c>
+      <c r="B174" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="6">
+        <v>43639</v>
+      </c>
+      <c r="B175" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="6">
+        <v>43640</v>
+      </c>
+      <c r="B176" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="6">
+        <v>43641</v>
+      </c>
+      <c r="B177" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="6">
+        <v>43642</v>
+      </c>
+      <c r="B178" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="6">
+        <v>43643</v>
+      </c>
+      <c r="B179" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="6">
+        <v>43644</v>
+      </c>
+      <c r="B180" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="6">
+        <v>43645</v>
+      </c>
+      <c r="B181" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="6">
+        <v>43646</v>
+      </c>
+      <c r="B182" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="6">
+        <v>43647</v>
+      </c>
+      <c r="B183" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="6">
+        <v>43648</v>
+      </c>
+      <c r="B184" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="6">
+        <v>43649</v>
+      </c>
+      <c r="B185" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="6">
+        <v>43650</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="6">
+        <v>43651</v>
+      </c>
+      <c r="B187" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="6">
+        <v>43652</v>
+      </c>
+      <c r="B188" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="6">
+        <v>43653</v>
+      </c>
+      <c r="B189" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="6">
+        <v>43654</v>
+      </c>
+      <c r="B190" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="6">
+        <v>43655</v>
+      </c>
+      <c r="B191" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="6">
+        <v>43656</v>
+      </c>
+      <c r="B192" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="6">
+        <v>43657</v>
+      </c>
+      <c r="B193" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="6">
+        <v>43658</v>
+      </c>
+      <c r="B194" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="6">
+        <v>43659</v>
+      </c>
+      <c r="B195" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="6">
+        <v>43660</v>
+      </c>
+      <c r="B196" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="6">
+        <v>43661</v>
+      </c>
+      <c r="B197" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="6">
+        <v>43662</v>
+      </c>
+      <c r="B198" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="6">
+        <v>43663</v>
+      </c>
+      <c r="B199" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="6">
+        <v>43664</v>
+      </c>
+      <c r="B200" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="6">
+        <v>43665</v>
+      </c>
+      <c r="B201" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="6">
+        <v>43666</v>
+      </c>
+      <c r="B202" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="6">
+        <v>43667</v>
+      </c>
+      <c r="B203" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="6">
+        <v>43668</v>
+      </c>
+      <c r="B204" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="6">
+        <v>43669</v>
+      </c>
+      <c r="B205" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="6">
+        <v>43670</v>
+      </c>
+      <c r="B206" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="6">
+        <v>43671</v>
+      </c>
+      <c r="B207" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="6">
+        <v>43672</v>
+      </c>
+      <c r="B208" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="6">
+        <v>43673</v>
+      </c>
+      <c r="B209" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="6">
+        <v>43674</v>
+      </c>
+      <c r="B210" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="6">
+        <v>43675</v>
+      </c>
+      <c r="B211" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="6">
+        <v>43676</v>
+      </c>
+      <c r="B212" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="6">
+        <v>43677</v>
+      </c>
+      <c r="B213" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="6">
+        <v>43678</v>
+      </c>
+      <c r="B214" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="6">
+        <v>43679</v>
+      </c>
+      <c r="B215" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="6">
+        <v>43680</v>
+      </c>
+      <c r="B216" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="6">
+        <v>43681</v>
+      </c>
+      <c r="B217" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="6">
+        <v>43682</v>
+      </c>
+      <c r="B218" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="6">
+        <v>43683</v>
+      </c>
+      <c r="B219" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="6">
+        <v>43684</v>
+      </c>
+      <c r="B220" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="6">
+        <v>43685</v>
+      </c>
+      <c r="B221" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="6">
+        <v>43686</v>
+      </c>
+      <c r="B222" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="6">
+        <v>43687</v>
+      </c>
+      <c r="B223" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="6">
+        <v>43688</v>
+      </c>
+      <c r="B224" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="6">
+        <v>43689</v>
+      </c>
+      <c r="B225" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="6">
+        <v>43690</v>
+      </c>
+      <c r="B226" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="6">
+        <v>43691</v>
+      </c>
+      <c r="B227" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="6">
+        <v>43692</v>
+      </c>
+      <c r="B228" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="6">
+        <v>43693</v>
+      </c>
+      <c r="B229" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="6">
+        <v>43694</v>
+      </c>
+      <c r="B230" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="6">
+        <v>43695</v>
+      </c>
+      <c r="B231" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="6">
+        <v>43696</v>
+      </c>
+      <c r="B232" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="6">
+        <v>43697</v>
+      </c>
+      <c r="B233" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="6">
+        <v>43698</v>
+      </c>
+      <c r="B234" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="6">
+        <v>43699</v>
+      </c>
+      <c r="B235" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="6">
+        <v>43700</v>
+      </c>
+      <c r="B236" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="6">
+        <v>43701</v>
+      </c>
+      <c r="B237" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="6">
+        <v>43702</v>
+      </c>
+      <c r="B238" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="6">
+        <v>43703</v>
+      </c>
+      <c r="B239" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="6">
+        <v>43704</v>
+      </c>
+      <c r="B240" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="6">
+        <v>43705</v>
+      </c>
+      <c r="B241" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="6">
+        <v>43706</v>
+      </c>
+      <c r="B242" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="6">
+        <v>43707</v>
+      </c>
+      <c r="B243" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="6">
+        <v>43708</v>
+      </c>
+      <c r="B244" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="6">
+        <v>43709</v>
+      </c>
+      <c r="B245" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="6">
+        <v>43710</v>
+      </c>
+      <c r="B246" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="6">
+        <v>43711</v>
+      </c>
+      <c r="B247" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="6">
+        <v>43712</v>
+      </c>
+      <c r="B248" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="6">
+        <v>43713</v>
+      </c>
+      <c r="B249" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="6">
+        <v>43714</v>
+      </c>
+      <c r="B250" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="6">
+        <v>43715</v>
+      </c>
+      <c r="B251" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="6">
+        <v>43716</v>
+      </c>
+      <c r="B252" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="6">
+        <v>43717</v>
+      </c>
+      <c r="B253" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="6">
+        <v>43718</v>
+      </c>
+      <c r="B254" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="6">
+        <v>43719</v>
+      </c>
+      <c r="B255" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="6">
+        <v>43720</v>
+      </c>
+      <c r="B256" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="6">
+        <v>43721</v>
+      </c>
+      <c r="B257" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="6">
+        <v>43722</v>
+      </c>
+      <c r="B258" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="6">
+        <v>43723</v>
+      </c>
+      <c r="B259" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="6">
+        <v>43724</v>
+      </c>
+      <c r="B260" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="6">
+        <v>43725</v>
+      </c>
+      <c r="B261" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="6">
+        <v>43726</v>
+      </c>
+      <c r="B262" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="6">
+        <v>43727</v>
+      </c>
+      <c r="B263" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="6">
+        <v>43728</v>
+      </c>
+      <c r="B264" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="6">
+        <v>43729</v>
+      </c>
+      <c r="B265" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="6">
+        <v>43730</v>
+      </c>
+      <c r="B266" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="6">
+        <v>43731</v>
+      </c>
+      <c r="B267" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="6">
+        <v>43732</v>
+      </c>
+      <c r="B268" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="6">
+        <v>43733</v>
+      </c>
+      <c r="B269" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="6">
+        <v>43734</v>
+      </c>
+      <c r="B270" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="6">
+        <v>43735</v>
+      </c>
+      <c r="B271" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="6">
+        <v>43736</v>
+      </c>
+      <c r="B272" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="6">
+        <v>43737</v>
+      </c>
+      <c r="B273" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="6">
+        <v>43738</v>
+      </c>
+      <c r="B274" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="6">
+        <v>43739</v>
+      </c>
+      <c r="B275" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="6">
+        <v>43740</v>
+      </c>
+      <c r="B276" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="6">
+        <v>43741</v>
+      </c>
+      <c r="B277" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="6">
+        <v>43742</v>
+      </c>
+      <c r="B278" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="6">
+        <v>43743</v>
+      </c>
+      <c r="B279" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="6">
+        <v>43744</v>
+      </c>
+      <c r="B280" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="6">
+        <v>43745</v>
+      </c>
+      <c r="B281" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="6">
+        <v>43746</v>
+      </c>
+      <c r="B282" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="6">
+        <v>43747</v>
+      </c>
+      <c r="B283" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="6">
+        <v>43748</v>
+      </c>
+      <c r="B284" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="6">
+        <v>43749</v>
+      </c>
+      <c r="B285" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="6">
+        <v>43750</v>
+      </c>
+      <c r="B286" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="6">
+        <v>43751</v>
+      </c>
+      <c r="B287" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="6">
+        <v>43752</v>
+      </c>
+      <c r="B288" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="6">
+        <v>43753</v>
+      </c>
+      <c r="B289" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="6">
+        <v>43754</v>
+      </c>
+      <c r="B290" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="6">
+        <v>43755</v>
+      </c>
+      <c r="B291" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="6">
+        <v>43756</v>
+      </c>
+      <c r="B292" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="6">
+        <v>43757</v>
+      </c>
+      <c r="B293" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="6">
+        <v>43758</v>
+      </c>
+      <c r="B294" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="6">
+        <v>43759</v>
+      </c>
+      <c r="B295" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="6">
+        <v>43760</v>
+      </c>
+      <c r="B296" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="6">
+        <v>43761</v>
+      </c>
+      <c r="B297" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="6">
+        <v>43762</v>
+      </c>
+      <c r="B298" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="6">
+        <v>43763</v>
+      </c>
+      <c r="B299" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="6">
+        <v>43764</v>
+      </c>
+      <c r="B300" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="6">
+        <v>43765</v>
+      </c>
+      <c r="B301" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="6">
+        <v>43766</v>
+      </c>
+      <c r="B302" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="6">
+        <v>43767</v>
+      </c>
+      <c r="B303" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="6">
+        <v>43768</v>
+      </c>
+      <c r="B304" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="6">
+        <v>43769</v>
+      </c>
+      <c r="B305" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="6">
+        <v>43770</v>
+      </c>
+      <c r="B306" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="6">
+        <v>43771</v>
+      </c>
+      <c r="B307" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="6">
+        <v>43772</v>
+      </c>
+      <c r="B308" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="6">
+        <v>43773</v>
+      </c>
+      <c r="B309" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="6">
+        <v>43774</v>
+      </c>
+      <c r="B310" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="6">
+        <v>43775</v>
+      </c>
+      <c r="B311" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="6">
+        <v>43776</v>
+      </c>
+      <c r="B312" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="6">
+        <v>43777</v>
+      </c>
+      <c r="B313" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="6">
+        <v>43778</v>
+      </c>
+      <c r="B314" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="6">
+        <v>43779</v>
+      </c>
+      <c r="B315" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="6">
+        <v>43780</v>
+      </c>
+      <c r="B316" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="6">
+        <v>43781</v>
+      </c>
+      <c r="B317" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="6">
+        <v>43782</v>
+      </c>
+      <c r="B318" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="6">
+        <v>43783</v>
+      </c>
+      <c r="B319" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="6">
+        <v>43784</v>
+      </c>
+      <c r="B320" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="6">
+        <v>43785</v>
+      </c>
+      <c r="B321" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="6">
+        <v>43786</v>
+      </c>
+      <c r="B322" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="6">
+        <v>43787</v>
+      </c>
+      <c r="B323" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="6">
+        <v>43788</v>
+      </c>
+      <c r="B324" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="6">
+        <v>43789</v>
+      </c>
+      <c r="B325" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="6">
+        <v>43790</v>
+      </c>
+      <c r="B326" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="6">
+        <v>43791</v>
+      </c>
+      <c r="B327" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="6">
+        <v>43792</v>
+      </c>
+      <c r="B328" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="6">
+        <v>43793</v>
+      </c>
+      <c r="B329" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="6">
+        <v>43794</v>
+      </c>
+      <c r="B330" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="6">
+        <v>43795</v>
+      </c>
+      <c r="B331" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="6">
+        <v>43796</v>
+      </c>
+      <c r="B332" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="6">
+        <v>43797</v>
+      </c>
+      <c r="B333" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="6">
+        <v>43798</v>
+      </c>
+      <c r="B334" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="6">
+        <v>43799</v>
+      </c>
+      <c r="B335" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="6">
+        <v>43800</v>
+      </c>
+      <c r="B336" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="6">
+        <v>43801</v>
+      </c>
+      <c r="B337" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="6">
+        <v>43802</v>
+      </c>
+      <c r="B338" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="6">
+        <v>43803</v>
+      </c>
+      <c r="B339" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="6">
+        <v>43804</v>
+      </c>
+      <c r="B340" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="6">
+        <v>43805</v>
+      </c>
+      <c r="B341" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="6">
+        <v>43806</v>
+      </c>
+      <c r="B342" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="6">
+        <v>43807</v>
+      </c>
+      <c r="B343" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="6">
+        <v>43808</v>
+      </c>
+      <c r="B344" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="6">
+        <v>43809</v>
+      </c>
+      <c r="B345" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="6">
+        <v>43810</v>
+      </c>
+      <c r="B346" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="6">
+        <v>43811</v>
+      </c>
+      <c r="B347" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="6">
+        <v>43812</v>
+      </c>
+      <c r="B348" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="6">
+        <v>43813</v>
+      </c>
+      <c r="B349" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="6">
+        <v>43814</v>
+      </c>
+      <c r="B350" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="6">
+        <v>43815</v>
+      </c>
+      <c r="B351" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="6">
+        <v>43816</v>
+      </c>
+      <c r="B352" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="6">
+        <v>43817</v>
+      </c>
+      <c r="B353" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="6">
+        <v>43818</v>
+      </c>
+      <c r="B354" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="6">
+        <v>43819</v>
+      </c>
+      <c r="B355" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="6">
+        <v>43820</v>
+      </c>
+      <c r="B356" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="6">
+        <v>43821</v>
+      </c>
+      <c r="B357" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="6">
+        <v>43822</v>
+      </c>
+      <c r="B358" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="6">
+        <v>43823</v>
+      </c>
+      <c r="B359" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="6">
+        <v>43824</v>
+      </c>
+      <c r="B360" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="6">
+        <v>43825</v>
+      </c>
+      <c r="B361" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="6">
+        <v>43826</v>
+      </c>
+      <c r="B362" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="6">
+        <v>43827</v>
+      </c>
+      <c r="B363" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="6">
+        <v>43828</v>
+      </c>
+      <c r="B364" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="6">
+        <v>43829</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="6">
+        <v>43830</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/pm10_pszczyna.xlsx
+++ b/data/pm10_pszczyna.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="270">
   <si>
     <t>data</t>
   </si>
@@ -36,805 +36,808 @@
     <t>pm10</t>
   </si>
   <si>
-    <t xml:space="preserve"> 	32,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	13,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	20,9	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	32,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	30,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	21,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	129,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	29,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	104,9	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	112,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	64,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	39,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	13,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	12,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	20,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	28,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	23,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	16,3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	115,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	224,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	248,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	196,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	65,9	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	40,6	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	65,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	61,3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	33,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	118,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	61,9	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	106,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	226,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	137,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	25,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	72,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	42,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	99,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	116,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	19,3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	38,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	58,6	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	73,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	103,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	75,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	174,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	181,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	56,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	46,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	21,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	60,6	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	91,9	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	74,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	77,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	45,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	83,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	85,6	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	32,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	21,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	13,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	50,6	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	33,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	16,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	15,3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	14,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	29,3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	16,6	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	16,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	13,3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	19,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	23,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	28,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	52,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	124,9	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	80,6	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	97,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	51,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	30,9	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	51,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	79,9	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	81,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	127,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	56,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	25,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	39,3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	52,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	56,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	62,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	57,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	38,9	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	56,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	58,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	35,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	42,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	32,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	50,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	48,3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	43,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	64,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	94,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	82,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	38,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	27,6	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	21,6	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	31,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	52,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	20,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	11,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	26,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	27,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	26,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	29,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	17,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	19,6	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	37,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	35,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	25,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	17,9	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	31,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	15,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	18,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	16,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	27,3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	30,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	36,3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	22,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	18,3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	19,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	12,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	12,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	27,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	24,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	23,3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	15,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	18,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	35,3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	17,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	15,9	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	21,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	30,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	30,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	32,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	32,3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	41,3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	38,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	20,6	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	24,6	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	23,6	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	20,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	14,3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	18,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	24,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	26,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	19,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	31,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	19,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	17,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	27,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	28,6	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	19,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	14,9	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	14,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	18,9	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	19,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	22,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	20,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	24,3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	23,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	22,9	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	37,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	24,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	28,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	33,9	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	26,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	22,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	15,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	22,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	23,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	17,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	13,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	17,3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	18,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	25,6	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	18,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	27,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	27,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	41,6	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	48,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	29,9	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	36,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	24,9	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	26,3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	28,3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	14,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	21,9	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	21,3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	11,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	25,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	16,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	34,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	44,3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	58,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	55,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	45,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	13,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	10,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	16,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	63,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	64,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	24,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	12,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	13,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	18,6	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	71,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	72,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	79,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	86,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	81,6	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	61,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	101,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	98,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	93,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	85,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	102,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	96,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	51,6	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	79,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	199,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	93,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	33,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	16,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	47,9	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	131,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	72,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	38,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	68,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	52,3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	35,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	53,9	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	50,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	68,9	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	64,9	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	68,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	39,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	62,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	49,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	63,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	78,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	42,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	106,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	72,6	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	78,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	97,1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	34,5	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	28,9	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	53,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	59,6	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	178,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	238,3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	96,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	84,6	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	228,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	116,4	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	38,7	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	46,9	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	49,0	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	28,2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	28,8	</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	20,1	</t>
+    <t xml:space="preserve">	32,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	13,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	20,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	32,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	30,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	21,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	129,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	29,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	104,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	112,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	64,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	39,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	13,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	12,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	20,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	28,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	23,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	16,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	115,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	224,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	248,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	196,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	65,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	40,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	65,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	61,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	33,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	118,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	61,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	106,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	226,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	137,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	25,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	72,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	42,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	99,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	116,1	</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">	19,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	38,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	58,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	73,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	103,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	75,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	174,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	181,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	56,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	46,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	21,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	60,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	91,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	74,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	77,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	45,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	83,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	85,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	32,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	21,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	13,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	50,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	33,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	16,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	15,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	14,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	29,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	16,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	16,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	13,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	19,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	23,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	28,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	52,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	124,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	80,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	97,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	51,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	30,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	51,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	79,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	81,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	127,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	56,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	25,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	39,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	52,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	56,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	62,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	57,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	38,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	56,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	58,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	35,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	42,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	32,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	50,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	48,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	43,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	64,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	94,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	82,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	38,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	27,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	21,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	31,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	52,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	20,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	11,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	26,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	27,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	26,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	29,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	17,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	19,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	37,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	35,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	25,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	17,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	31,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	15,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	18,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	16,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	27,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	30,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	36,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	22,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	18,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	19,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	12,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	12,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	27,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	24,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	23,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	15,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	18,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	35,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	17,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	15,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	21,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	30,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	30,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	32,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	32,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	41,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	38,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	20,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	24,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	23,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	20,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	14,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	18,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	24,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	26,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	19,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	31,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	19,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	17,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	27,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	28,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	19,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	14,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	14,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	18,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	19,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	22,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	20,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	24,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	23,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	22,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	37,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	24,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	28,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	33,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	26,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	22,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	15,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	22,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	23,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	17,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	13,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	17,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	18,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	25,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	18,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	27,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	27,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	41,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	48,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	29,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	36,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	24,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	26,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	28,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	14,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	21,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	21,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	11,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	25,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	16,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	34,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	44,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	58,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	55,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	45,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	13,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	10,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	16,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	63,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	64,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	24,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	12,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	13,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	18,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	71,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	72,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	79,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	86,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	81,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	61,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	101,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	98,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	93,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	85,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	102,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	96,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	51,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	79,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	199,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	93,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	33,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	16,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	47,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	131,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	72,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	38,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	68,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	52,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	35,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	53,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	50,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	68,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	64,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	68,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	39,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	62,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	49,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	63,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	78,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	42,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	106,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	72,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	78,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	97,1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	34,5	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	28,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	53,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	59,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	178,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	238,3	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	96,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	84,6	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	228,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	116,4	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	38,7	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	46,9	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	49,0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	28,2	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	28,8	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	20,1	</t>
   </si>
 </sst>
 </file>
@@ -12885,7 +12888,7 @@
       <c r="A2" s="6">
         <v>43466</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12893,7 +12896,7 @@
       <c r="A3" s="6">
         <v>43467</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -12901,7 +12904,7 @@
       <c r="A4" s="6">
         <v>43468</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -12909,7 +12912,7 @@
       <c r="A5" s="6">
         <v>43469</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -12917,7 +12920,7 @@
       <c r="A6" s="6">
         <v>43470</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12925,7 +12928,7 @@
       <c r="A7" s="6">
         <v>43471</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -12933,7 +12936,7 @@
       <c r="A8" s="6">
         <v>43472</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -12941,7 +12944,7 @@
       <c r="A9" s="6">
         <v>43473</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -12949,7 +12952,7 @@
       <c r="A10" s="6">
         <v>43474</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -12957,7 +12960,7 @@
       <c r="A11" s="6">
         <v>43475</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -12965,7 +12968,7 @@
       <c r="A12" s="6">
         <v>43476</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12973,7 +12976,7 @@
       <c r="A13" s="6">
         <v>43477</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12981,7 +12984,7 @@
       <c r="A14" s="6">
         <v>43478</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -12989,7 +12992,7 @@
       <c r="A15" s="6">
         <v>43479</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -12997,7 +13000,7 @@
       <c r="A16" s="6">
         <v>43480</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -13005,7 +13008,7 @@
       <c r="A17" s="6">
         <v>43481</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -13013,7 +13016,7 @@
       <c r="A18" s="6">
         <v>43482</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -13021,7 +13024,7 @@
       <c r="A19" s="6">
         <v>43483</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -13029,7 +13032,7 @@
       <c r="A20" s="6">
         <v>43484</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -13037,7 +13040,7 @@
       <c r="A21" s="6">
         <v>43485</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13045,7 +13048,7 @@
       <c r="A22" s="6">
         <v>43486</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -13053,7 +13056,7 @@
       <c r="A23" s="6">
         <v>43487</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -13061,7 +13064,7 @@
       <c r="A24" s="6">
         <v>43488</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -13069,7 +13072,7 @@
       <c r="A25" s="6">
         <v>43489</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -13077,7 +13080,7 @@
       <c r="A26" s="6">
         <v>43490</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -13085,7 +13088,7 @@
       <c r="A27" s="6">
         <v>43491</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -13093,7 +13096,7 @@
       <c r="A28" s="6">
         <v>43492</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -13101,7 +13104,7 @@
       <c r="A29" s="6">
         <v>43493</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -13109,7 +13112,7 @@
       <c r="A30" s="6">
         <v>43494</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -13117,7 +13120,7 @@
       <c r="A31" s="6">
         <v>43495</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13125,7 +13128,7 @@
       <c r="A32" s="6">
         <v>43496</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -13133,7 +13136,7 @@
       <c r="A33" s="6">
         <v>43497</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -13141,7 +13144,7 @@
       <c r="A34" s="6">
         <v>43498</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -13149,7 +13152,7 @@
       <c r="A35" s="6">
         <v>43499</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -13157,7 +13160,7 @@
       <c r="A36" s="6">
         <v>43500</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -13165,7 +13168,7 @@
       <c r="A37" s="6">
         <v>43501</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -13173,7 +13176,7 @@
       <c r="A38" s="6">
         <v>43502</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -13181,1162 +13184,1183 @@
       <c r="A39" s="6">
         <v>43503</v>
       </c>
+      <c r="B39" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>43504</v>
       </c>
+      <c r="B40" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>43505</v>
       </c>
+      <c r="B41" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>43506</v>
       </c>
+      <c r="B42" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>43507</v>
       </c>
+      <c r="B43" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43508</v>
       </c>
-      <c r="B44" t="s">
-        <v>39</v>
+      <c r="B44" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>43509</v>
       </c>
-      <c r="B45" t="s">
-        <v>40</v>
+      <c r="B45" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>43510</v>
       </c>
-      <c r="B46" t="s">
-        <v>41</v>
+      <c r="B46" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>43511</v>
       </c>
-      <c r="B47" t="s">
-        <v>42</v>
+      <c r="B47" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>43512</v>
       </c>
-      <c r="B48" t="s">
-        <v>43</v>
+      <c r="B48" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>43513</v>
       </c>
-      <c r="B49" t="s">
-        <v>44</v>
+      <c r="B49" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>43514</v>
       </c>
-      <c r="B50" t="s">
-        <v>45</v>
+      <c r="B50" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>43515</v>
       </c>
-      <c r="B51" t="s">
-        <v>46</v>
+      <c r="B51" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>43516</v>
       </c>
-      <c r="B52" t="s">
-        <v>47</v>
+      <c r="B52" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>43517</v>
       </c>
-      <c r="B53" t="s">
-        <v>48</v>
+      <c r="B53" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>43518</v>
       </c>
-      <c r="B54" t="s">
-        <v>49</v>
+      <c r="B54" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>43519</v>
       </c>
-      <c r="B55" t="s">
-        <v>50</v>
+      <c r="B55" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>43520</v>
       </c>
-      <c r="B56" t="s">
-        <v>51</v>
+      <c r="B56" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>43521</v>
       </c>
-      <c r="B57" t="s">
-        <v>52</v>
+      <c r="B57" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>43522</v>
       </c>
+      <c r="B58" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>43523</v>
       </c>
-      <c r="B59" t="s">
-        <v>53</v>
+      <c r="B59" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>43524</v>
       </c>
-      <c r="B60" t="s">
-        <v>54</v>
+      <c r="B60" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>43525</v>
       </c>
-      <c r="B61" t="s">
-        <v>55</v>
+      <c r="B61" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>43526</v>
       </c>
-      <c r="B62" t="s">
-        <v>56</v>
+      <c r="B62" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>43527</v>
       </c>
-      <c r="B63" t="s">
-        <v>57</v>
+      <c r="B63" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>43528</v>
       </c>
-      <c r="B64" t="s">
-        <v>58</v>
+      <c r="B64" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>43529</v>
       </c>
-      <c r="B65" t="s">
-        <v>59</v>
+      <c r="B65" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>43530</v>
       </c>
-      <c r="B66" t="s">
-        <v>60</v>
+      <c r="B66" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>43531</v>
       </c>
-      <c r="B67" t="s">
-        <v>61</v>
+      <c r="B67" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>43532</v>
       </c>
-      <c r="B68" t="s">
-        <v>62</v>
+      <c r="B68" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>43533</v>
       </c>
-      <c r="B69" t="s">
-        <v>62</v>
+      <c r="B69" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>43534</v>
       </c>
-      <c r="B70" t="s">
-        <v>63</v>
+      <c r="B70" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>43535</v>
       </c>
-      <c r="B71" t="s">
-        <v>64</v>
+      <c r="B71" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>43536</v>
       </c>
-      <c r="B72" t="s">
-        <v>65</v>
+      <c r="B72" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>43537</v>
       </c>
-      <c r="B73" t="s">
-        <v>66</v>
+      <c r="B73" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>43538</v>
       </c>
-      <c r="B74" t="s">
-        <v>67</v>
+      <c r="B74" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>43539</v>
       </c>
-      <c r="B75" t="s">
-        <v>68</v>
+      <c r="B75" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>43540</v>
       </c>
-      <c r="B76" t="s">
-        <v>69</v>
+      <c r="B76" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>43541</v>
       </c>
-      <c r="B77" t="s">
-        <v>70</v>
+      <c r="B77" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>43542</v>
       </c>
-      <c r="B78" t="s">
-        <v>71</v>
+      <c r="B78" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>43543</v>
       </c>
-      <c r="B79" t="s">
-        <v>72</v>
+      <c r="B79" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>43544</v>
       </c>
-      <c r="B80" t="s">
-        <v>73</v>
+      <c r="B80" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>43545</v>
       </c>
-      <c r="B81" t="s">
-        <v>51</v>
+      <c r="B81" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>43546</v>
       </c>
-      <c r="B82" t="s">
-        <v>74</v>
+      <c r="B82" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>43547</v>
       </c>
-      <c r="B83" t="s">
-        <v>75</v>
+      <c r="B83" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>43548</v>
       </c>
-      <c r="B84" t="s">
-        <v>76</v>
+      <c r="B84" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>43549</v>
       </c>
-      <c r="B85" t="s">
-        <v>77</v>
+      <c r="B85" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>43550</v>
       </c>
-      <c r="B86" t="s">
-        <v>63</v>
+      <c r="B86" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>43551</v>
       </c>
-      <c r="B87" t="s">
-        <v>78</v>
+      <c r="B87" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>43552</v>
       </c>
-      <c r="B88" t="s">
-        <v>79</v>
+      <c r="B88" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>43553</v>
       </c>
-      <c r="B89" t="s">
-        <v>80</v>
+      <c r="B89" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>43554</v>
       </c>
-      <c r="B90" t="s">
-        <v>81</v>
+      <c r="B90" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>43555</v>
       </c>
-      <c r="B91" t="s">
-        <v>82</v>
+      <c r="B91" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>43556</v>
       </c>
-      <c r="B92" t="s">
-        <v>83</v>
+      <c r="B92" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>43557</v>
       </c>
-      <c r="B93" t="s">
-        <v>84</v>
+      <c r="B93" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>43558</v>
       </c>
-      <c r="B94" t="s">
-        <v>85</v>
+      <c r="B94" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>43559</v>
       </c>
-      <c r="B95" t="s">
-        <v>86</v>
+      <c r="B95" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>43560</v>
       </c>
-      <c r="B96" t="s">
-        <v>87</v>
+      <c r="B96" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>43561</v>
       </c>
-      <c r="B97" t="s">
-        <v>88</v>
+      <c r="B97" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>43562</v>
       </c>
-      <c r="B98" t="s">
-        <v>89</v>
+      <c r="B98" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>43563</v>
       </c>
-      <c r="B99" t="s">
-        <v>90</v>
+      <c r="B99" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>43564</v>
       </c>
-      <c r="B100" t="s">
-        <v>91</v>
+      <c r="B100" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>43565</v>
       </c>
-      <c r="B101" t="s">
-        <v>92</v>
+      <c r="B101" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>43566</v>
       </c>
-      <c r="B102" t="s">
-        <v>93</v>
+      <c r="B102" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>43567</v>
       </c>
-      <c r="B103" t="s">
-        <v>94</v>
+      <c r="B103" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>43568</v>
       </c>
-      <c r="B104" t="s">
-        <v>95</v>
+      <c r="B104" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>43569</v>
       </c>
-      <c r="B105" t="s">
-        <v>93</v>
+      <c r="B105" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>43570</v>
       </c>
-      <c r="B106" t="s">
-        <v>96</v>
+      <c r="B106" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>43571</v>
       </c>
-      <c r="B107" t="s">
-        <v>97</v>
+      <c r="B107" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>43572</v>
       </c>
-      <c r="B108" t="s">
-        <v>98</v>
+      <c r="B108" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>43573</v>
       </c>
-      <c r="B109" t="s">
-        <v>99</v>
+      <c r="B109" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>43574</v>
       </c>
-      <c r="B110" t="s">
-        <v>100</v>
+      <c r="B110" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>43575</v>
       </c>
-      <c r="B111" t="s">
-        <v>60</v>
+      <c r="B111" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>43576</v>
       </c>
-      <c r="B112" t="s">
-        <v>101</v>
+      <c r="B112" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>43577</v>
       </c>
-      <c r="B113" t="s">
-        <v>102</v>
+      <c r="B113" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>43578</v>
       </c>
-      <c r="B114" t="s">
-        <v>103</v>
+      <c r="B114" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>43579</v>
       </c>
-      <c r="B115" t="s">
-        <v>104</v>
+      <c r="B115" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>43580</v>
       </c>
+      <c r="B116" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>43581</v>
       </c>
-      <c r="B117" t="s">
-        <v>105</v>
+      <c r="B117" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>43582</v>
       </c>
-      <c r="B118" t="s">
-        <v>106</v>
+      <c r="B118" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>43583</v>
       </c>
-      <c r="B119" t="s">
-        <v>63</v>
+      <c r="B119" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>43584</v>
       </c>
-      <c r="B120" t="s">
-        <v>107</v>
+      <c r="B120" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>43585</v>
       </c>
-      <c r="B121" t="s">
-        <v>108</v>
+      <c r="B121" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>43586</v>
       </c>
-      <c r="B122" t="s">
-        <v>109</v>
+      <c r="B122" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>43587</v>
       </c>
-      <c r="B123" t="s">
-        <v>110</v>
+      <c r="B123" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>43588</v>
       </c>
-      <c r="B124" t="s">
-        <v>111</v>
+      <c r="B124" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>43589</v>
       </c>
-      <c r="B125" t="s">
-        <v>112</v>
+      <c r="B125" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>43590</v>
       </c>
-      <c r="B126" t="s">
-        <v>113</v>
+      <c r="B126" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>43591</v>
       </c>
-      <c r="B127" t="s">
-        <v>39</v>
+      <c r="B127" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>43592</v>
       </c>
-      <c r="B128" t="s">
-        <v>114</v>
+      <c r="B128" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>43593</v>
       </c>
-      <c r="B129" t="s">
-        <v>115</v>
+      <c r="B129" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>43594</v>
       </c>
-      <c r="B130" t="s">
-        <v>57</v>
+      <c r="B130" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>43595</v>
       </c>
-      <c r="B131" t="s">
-        <v>116</v>
+      <c r="B131" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>43596</v>
       </c>
-      <c r="B132" t="s">
-        <v>117</v>
+      <c r="B132" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>43597</v>
       </c>
-      <c r="B133" t="s">
-        <v>118</v>
+      <c r="B133" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>43598</v>
       </c>
-      <c r="B134" t="s">
-        <v>119</v>
+      <c r="B134" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>43599</v>
       </c>
-      <c r="B135" t="s">
-        <v>120</v>
+      <c r="B135" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>43600</v>
       </c>
-      <c r="B136" t="s">
-        <v>121</v>
+      <c r="B136" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>43601</v>
       </c>
-      <c r="B137" t="s">
-        <v>122</v>
+      <c r="B137" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>43602</v>
       </c>
-      <c r="B138" t="s">
-        <v>123</v>
+      <c r="B138" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>43603</v>
       </c>
-      <c r="B139" t="s">
-        <v>124</v>
+      <c r="B139" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>43604</v>
       </c>
-      <c r="B140" t="s">
-        <v>125</v>
+      <c r="B140" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>43605</v>
       </c>
-      <c r="B141" t="s">
-        <v>126</v>
+      <c r="B141" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>43606</v>
       </c>
-      <c r="B142" t="s">
-        <v>127</v>
+      <c r="B142" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>43607</v>
       </c>
-      <c r="B143" t="s">
-        <v>128</v>
+      <c r="B143" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>43608</v>
       </c>
-      <c r="B144" t="s">
-        <v>129</v>
+      <c r="B144" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>43609</v>
       </c>
-      <c r="B145" t="s">
-        <v>130</v>
+      <c r="B145" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>43610</v>
       </c>
-      <c r="B146" t="s">
-        <v>71</v>
+      <c r="B146" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>43611</v>
       </c>
-      <c r="B147" t="s">
-        <v>131</v>
+      <c r="B147" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>43612</v>
       </c>
-      <c r="B148" t="s">
-        <v>132</v>
+      <c r="B148" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>43613</v>
       </c>
-      <c r="B149" t="s">
-        <v>133</v>
+      <c r="B149" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>43614</v>
       </c>
-      <c r="B150" t="s">
-        <v>134</v>
+      <c r="B150" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>43615</v>
       </c>
-      <c r="B151" t="s">
-        <v>70</v>
+      <c r="B151" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>43616</v>
       </c>
-      <c r="B152" t="s">
-        <v>116</v>
+      <c r="B152" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>43617</v>
       </c>
-      <c r="B153" t="s">
-        <v>135</v>
+      <c r="B153" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>43618</v>
       </c>
-      <c r="B154" t="s">
-        <v>71</v>
+      <c r="B154" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>43619</v>
       </c>
-      <c r="B155" t="s">
-        <v>131</v>
+      <c r="B155" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>43620</v>
       </c>
-      <c r="B156" t="s">
-        <v>108</v>
+      <c r="B156" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>43621</v>
       </c>
-      <c r="B157" t="s">
-        <v>110</v>
+      <c r="B157" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>43622</v>
       </c>
-      <c r="B158" t="s">
-        <v>136</v>
+      <c r="B158" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>43623</v>
       </c>
-      <c r="B159" t="s">
-        <v>137</v>
+      <c r="B159" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>43624</v>
       </c>
-      <c r="B160" t="s">
-        <v>138</v>
+      <c r="B160" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>43625</v>
       </c>
-      <c r="B161" t="s">
-        <v>139</v>
+      <c r="B161" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>43626</v>
       </c>
-      <c r="B162" t="s">
-        <v>140</v>
+      <c r="B162" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>43627</v>
       </c>
-      <c r="B163" t="s">
-        <v>141</v>
+      <c r="B163" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>43628</v>
       </c>
-      <c r="B164" t="s">
-        <v>140</v>
+      <c r="B164" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>43629</v>
       </c>
-      <c r="B165" t="s">
-        <v>142</v>
+      <c r="B165" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>43630</v>
       </c>
-      <c r="B166" t="s">
-        <v>143</v>
+      <c r="B166" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>43631</v>
       </c>
-      <c r="B167" t="s">
-        <v>144</v>
+      <c r="B167" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>43632</v>
       </c>
-      <c r="B168" t="s">
-        <v>145</v>
+      <c r="B168" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>43633</v>
       </c>
-      <c r="B169" t="s">
-        <v>127</v>
+      <c r="B169" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>43634</v>
       </c>
-      <c r="B170" t="s">
-        <v>146</v>
+      <c r="B170" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>43635</v>
       </c>
-      <c r="B171" t="s">
-        <v>147</v>
+      <c r="B171" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>43636</v>
       </c>
-      <c r="B172" t="s">
-        <v>62</v>
+      <c r="B172" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>43637</v>
       </c>
-      <c r="B173" t="s">
-        <v>69</v>
+      <c r="B173" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>43638</v>
       </c>
-      <c r="B174" t="s">
-        <v>148</v>
+      <c r="B174" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>43639</v>
       </c>
-      <c r="B175" t="s">
-        <v>149</v>
+      <c r="B175" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>43640</v>
       </c>
-      <c r="B176" t="s">
-        <v>150</v>
+      <c r="B176" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>43641</v>
       </c>
-      <c r="B177" t="s">
-        <v>151</v>
+      <c r="B177" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <v>43642</v>
       </c>
-      <c r="B178" t="s">
-        <v>152</v>
+      <c r="B178" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>43643</v>
       </c>
-      <c r="B179" t="s">
-        <v>110</v>
+      <c r="B179" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>43644</v>
       </c>
-      <c r="B180" t="s">
-        <v>120</v>
+      <c r="B180" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>43645</v>
       </c>
-      <c r="B181" t="s">
-        <v>153</v>
+      <c r="B181" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>43646</v>
       </c>
-      <c r="B182" t="s">
-        <v>112</v>
+      <c r="B182" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <v>43647</v>
       </c>
-      <c r="B183" t="s">
-        <v>154</v>
+      <c r="B183" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>43648</v>
       </c>
-      <c r="B184" t="s">
-        <v>155</v>
+      <c r="B184" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <v>43649</v>
       </c>
-      <c r="B185" t="s">
-        <v>156</v>
+      <c r="B185" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
         <v>43650</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -14344,591 +14368,591 @@
       <c r="A187" s="6">
         <v>43651</v>
       </c>
-      <c r="B187" t="s">
-        <v>157</v>
+      <c r="B187" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>43652</v>
       </c>
-      <c r="B188" t="s">
-        <v>158</v>
+      <c r="B188" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>43653</v>
       </c>
-      <c r="B189" t="s">
-        <v>159</v>
+      <c r="B189" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <v>43654</v>
       </c>
-      <c r="B190" t="s">
-        <v>160</v>
+      <c r="B190" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>43655</v>
       </c>
-      <c r="B191" t="s">
-        <v>119</v>
+      <c r="B191" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <v>43656</v>
       </c>
-      <c r="B192" t="s">
-        <v>161</v>
+      <c r="B192" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>43657</v>
       </c>
-      <c r="B193" t="s">
-        <v>63</v>
+      <c r="B193" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>43658</v>
       </c>
-      <c r="B194" t="s">
-        <v>162</v>
+      <c r="B194" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
         <v>43659</v>
       </c>
-      <c r="B195" t="s">
-        <v>163</v>
+      <c r="B195" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
         <v>43660</v>
       </c>
-      <c r="B196" t="s">
-        <v>164</v>
+      <c r="B196" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
         <v>43661</v>
       </c>
-      <c r="B197" t="s">
-        <v>127</v>
+      <c r="B197" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
         <v>43662</v>
       </c>
-      <c r="B198" t="s">
-        <v>165</v>
+      <c r="B198" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
         <v>43663</v>
       </c>
-      <c r="B199" t="s">
-        <v>136</v>
+      <c r="B199" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <v>43664</v>
       </c>
-      <c r="B200" t="s">
-        <v>166</v>
+      <c r="B200" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
         <v>43665</v>
       </c>
-      <c r="B201" t="s">
-        <v>49</v>
+      <c r="B201" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
         <v>43666</v>
       </c>
-      <c r="B202" t="s">
-        <v>167</v>
+      <c r="B202" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
         <v>43667</v>
       </c>
-      <c r="B203" t="s">
-        <v>152</v>
+      <c r="B203" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
         <v>43668</v>
       </c>
-      <c r="B204" t="s">
-        <v>152</v>
+      <c r="B204" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
         <v>43669</v>
       </c>
-      <c r="B205" t="s">
-        <v>168</v>
+      <c r="B205" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
         <v>43670</v>
       </c>
-      <c r="B206" t="s">
-        <v>132</v>
+      <c r="B206" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
         <v>43671</v>
       </c>
-      <c r="B207" t="s">
-        <v>123</v>
+      <c r="B207" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
         <v>43672</v>
       </c>
-      <c r="B208" t="s">
-        <v>169</v>
+      <c r="B208" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
         <v>43673</v>
       </c>
-      <c r="B209" t="s">
-        <v>170</v>
+      <c r="B209" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
         <v>43674</v>
       </c>
-      <c r="B210" t="s">
-        <v>171</v>
+      <c r="B210" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
         <v>43675</v>
       </c>
-      <c r="B211" t="s">
-        <v>172</v>
+      <c r="B211" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
         <v>43676</v>
       </c>
-      <c r="B212" t="s">
-        <v>108</v>
+      <c r="B212" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
         <v>43677</v>
       </c>
-      <c r="B213" t="s">
-        <v>173</v>
+      <c r="B213" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
         <v>43678</v>
       </c>
-      <c r="B214" t="s">
-        <v>127</v>
+      <c r="B214" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
         <v>43679</v>
       </c>
-      <c r="B215" t="s">
-        <v>174</v>
+      <c r="B215" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
         <v>43680</v>
       </c>
-      <c r="B216" t="s">
-        <v>110</v>
+      <c r="B216" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
         <v>43681</v>
       </c>
-      <c r="B217" t="s">
-        <v>175</v>
+      <c r="B217" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>43682</v>
       </c>
-      <c r="B218" t="s">
-        <v>39</v>
+      <c r="B218" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
         <v>43683</v>
       </c>
-      <c r="B219" t="s">
-        <v>162</v>
+      <c r="B219" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
         <v>43684</v>
       </c>
-      <c r="B220" t="s">
-        <v>176</v>
+      <c r="B220" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
         <v>43685</v>
       </c>
-      <c r="B221" t="s">
-        <v>150</v>
+      <c r="B221" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
         <v>43686</v>
       </c>
-      <c r="B222" t="s">
-        <v>116</v>
+      <c r="B222" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
         <v>43687</v>
       </c>
-      <c r="B223" t="s">
-        <v>177</v>
+      <c r="B223" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
         <v>43688</v>
       </c>
-      <c r="B224" t="s">
-        <v>175</v>
+      <c r="B224" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
         <v>43689</v>
       </c>
-      <c r="B225" t="s">
-        <v>164</v>
+      <c r="B225" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
         <v>43690</v>
       </c>
-      <c r="B226" t="s">
-        <v>178</v>
+      <c r="B226" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
         <v>43691</v>
       </c>
-      <c r="B227" t="s">
-        <v>179</v>
+      <c r="B227" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
         <v>43692</v>
       </c>
-      <c r="B228" t="s">
-        <v>66</v>
+      <c r="B228" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
         <v>43693</v>
       </c>
-      <c r="B229" t="s">
-        <v>150</v>
+      <c r="B229" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
         <v>43694</v>
       </c>
-      <c r="B230" t="s">
-        <v>180</v>
+      <c r="B230" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
         <v>43695</v>
       </c>
-      <c r="B231" t="s">
-        <v>67</v>
+      <c r="B231" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
         <v>43696</v>
       </c>
-      <c r="B232" t="s">
-        <v>181</v>
+      <c r="B232" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
         <v>43697</v>
       </c>
-      <c r="B233" t="s">
-        <v>182</v>
+      <c r="B233" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
         <v>43698</v>
       </c>
-      <c r="B234" t="s">
-        <v>178</v>
+      <c r="B234" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
         <v>43699</v>
       </c>
-      <c r="B235" t="s">
-        <v>183</v>
+      <c r="B235" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
         <v>43700</v>
       </c>
-      <c r="B236" t="s">
-        <v>184</v>
+      <c r="B236" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
         <v>43701</v>
       </c>
-      <c r="B237" t="s">
-        <v>140</v>
+      <c r="B237" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
         <v>43702</v>
       </c>
-      <c r="B238" t="s">
-        <v>185</v>
+      <c r="B238" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
         <v>43703</v>
       </c>
-      <c r="B239" t="s">
-        <v>186</v>
+      <c r="B239" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
         <v>43704</v>
       </c>
-      <c r="B240" t="s">
-        <v>187</v>
+      <c r="B240" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
         <v>43705</v>
       </c>
-      <c r="B241" t="s">
-        <v>188</v>
+      <c r="B241" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
         <v>43706</v>
       </c>
-      <c r="B242" t="s">
-        <v>189</v>
+      <c r="B242" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
         <v>43707</v>
       </c>
-      <c r="B243" t="s">
-        <v>190</v>
+      <c r="B243" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
         <v>43708</v>
       </c>
-      <c r="B244" t="s">
-        <v>191</v>
+      <c r="B244" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
         <v>43709</v>
       </c>
-      <c r="B245" t="s">
-        <v>192</v>
+      <c r="B245" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
         <v>43710</v>
       </c>
-      <c r="B246" t="s">
-        <v>193</v>
+      <c r="B246" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
         <v>43711</v>
       </c>
-      <c r="B247" t="s">
-        <v>59</v>
+      <c r="B247" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
         <v>43712</v>
       </c>
-      <c r="B248" t="s">
-        <v>162</v>
+      <c r="B248" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
         <v>43713</v>
       </c>
-      <c r="B249" t="s">
-        <v>194</v>
+      <c r="B249" s="4" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
         <v>43714</v>
       </c>
-      <c r="B250" t="s">
-        <v>195</v>
+      <c r="B250" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
         <v>43715</v>
       </c>
-      <c r="B251" t="s">
-        <v>170</v>
+      <c r="B251" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
         <v>43716</v>
       </c>
-      <c r="B252" t="s">
-        <v>175</v>
+      <c r="B252" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
         <v>43717</v>
       </c>
-      <c r="B253" t="s">
-        <v>196</v>
+      <c r="B253" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
         <v>43718</v>
       </c>
-      <c r="B254" t="s">
-        <v>68</v>
+      <c r="B254" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
         <v>43719</v>
       </c>
-      <c r="B255" t="s">
-        <v>157</v>
+      <c r="B255" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
         <v>43720</v>
       </c>
-      <c r="B256" t="s">
-        <v>197</v>
+      <c r="B256" s="4" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
         <v>43721</v>
       </c>
-      <c r="B257" t="s">
-        <v>145</v>
+      <c r="B257" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
         <v>43722</v>
       </c>
-      <c r="B258" t="s">
-        <v>176</v>
+      <c r="B258" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
         <v>43723</v>
       </c>
-      <c r="B259" t="s">
-        <v>180</v>
+      <c r="B259" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
         <v>43724</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -14936,23 +14960,23 @@
       <c r="A261" s="6">
         <v>43725</v>
       </c>
-      <c r="B261" t="s">
-        <v>198</v>
+      <c r="B261" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
         <v>43726</v>
       </c>
-      <c r="B262" t="s">
-        <v>59</v>
+      <c r="B262" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
         <v>43727</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -14960,127 +14984,127 @@
       <c r="A264" s="6">
         <v>43728</v>
       </c>
-      <c r="B264" t="s">
-        <v>154</v>
+      <c r="B264" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
         <v>43729</v>
       </c>
-      <c r="B265" t="s">
-        <v>199</v>
+      <c r="B265" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
         <v>43730</v>
       </c>
-      <c r="B266" t="s">
-        <v>200</v>
+      <c r="B266" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
         <v>43731</v>
       </c>
-      <c r="B267" t="s">
-        <v>201</v>
+      <c r="B267" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
         <v>43732</v>
       </c>
-      <c r="B268" t="s">
-        <v>202</v>
+      <c r="B268" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
         <v>43733</v>
       </c>
-      <c r="B269" t="s">
-        <v>203</v>
+      <c r="B269" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
         <v>43734</v>
       </c>
-      <c r="B270" t="s">
-        <v>138</v>
+      <c r="B270" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
         <v>43735</v>
       </c>
-      <c r="B271" t="s">
-        <v>127</v>
+      <c r="B271" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
         <v>43736</v>
       </c>
-      <c r="B272" t="s">
-        <v>204</v>
+      <c r="B272" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
         <v>43737</v>
       </c>
-      <c r="B273" t="s">
-        <v>205</v>
+      <c r="B273" s="4" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
         <v>43738</v>
       </c>
-      <c r="B274" t="s">
-        <v>63</v>
+      <c r="B274" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
         <v>43739</v>
       </c>
-      <c r="B275" t="s">
-        <v>206</v>
+      <c r="B275" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
         <v>43740</v>
       </c>
-      <c r="B276" t="s">
-        <v>137</v>
+      <c r="B276" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
         <v>43741</v>
       </c>
-      <c r="B277" t="s">
-        <v>136</v>
+      <c r="B277" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
         <v>43742</v>
       </c>
-      <c r="B278" t="s">
-        <v>173</v>
+      <c r="B278" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
         <v>43743</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15088,191 +15112,191 @@
       <c r="A280" s="6">
         <v>43744</v>
       </c>
-      <c r="B280" t="s">
-        <v>40</v>
+      <c r="B280" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
         <v>43745</v>
       </c>
-      <c r="B281" t="s">
-        <v>207</v>
+      <c r="B281" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
         <v>43746</v>
       </c>
-      <c r="B282" t="s">
-        <v>208</v>
+      <c r="B282" s="4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
         <v>43747</v>
       </c>
-      <c r="B283" t="s">
-        <v>209</v>
+      <c r="B283" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
         <v>43748</v>
       </c>
-      <c r="B284" t="s">
-        <v>210</v>
+      <c r="B284" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
         <v>43749</v>
       </c>
-      <c r="B285" t="s">
-        <v>211</v>
+      <c r="B285" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
         <v>43750</v>
       </c>
-      <c r="B286" t="s">
-        <v>212</v>
+      <c r="B286" s="4" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
         <v>43751</v>
       </c>
-      <c r="B287" t="s">
-        <v>182</v>
+      <c r="B287" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
         <v>43752</v>
       </c>
-      <c r="B288" t="s">
-        <v>213</v>
+      <c r="B288" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
         <v>43753</v>
       </c>
-      <c r="B289" t="s">
-        <v>214</v>
+      <c r="B289" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
         <v>43754</v>
       </c>
-      <c r="B290" t="s">
-        <v>154</v>
+      <c r="B290" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
         <v>43755</v>
       </c>
-      <c r="B291" t="s">
-        <v>215</v>
+      <c r="B291" s="4" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
         <v>43756</v>
       </c>
-      <c r="B292" t="s">
-        <v>216</v>
+      <c r="B292" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
         <v>43757</v>
       </c>
-      <c r="B293" t="s">
-        <v>217</v>
+      <c r="B293" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
         <v>43758</v>
       </c>
-      <c r="B294" t="s">
-        <v>218</v>
+      <c r="B294" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
         <v>43759</v>
       </c>
-      <c r="B295" t="s">
-        <v>219</v>
+      <c r="B295" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
         <v>43760</v>
       </c>
-      <c r="B296" t="s">
-        <v>220</v>
+      <c r="B296" s="4" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
         <v>43761</v>
       </c>
-      <c r="B297" t="s">
-        <v>221</v>
+      <c r="B297" s="4" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="6">
         <v>43762</v>
       </c>
-      <c r="B298" t="s">
-        <v>222</v>
+      <c r="B298" s="4" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
         <v>43763</v>
       </c>
-      <c r="B299" t="s">
-        <v>223</v>
+      <c r="B299" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
         <v>43764</v>
       </c>
-      <c r="B300" t="s">
-        <v>224</v>
+      <c r="B300" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="6">
         <v>43765</v>
       </c>
-      <c r="B301" t="s">
-        <v>140</v>
+      <c r="B301" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
         <v>43766</v>
       </c>
-      <c r="B302" t="s">
-        <v>225</v>
+      <c r="B302" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="6">
         <v>43767</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -15280,231 +15304,231 @@
       <c r="A304" s="6">
         <v>43768</v>
       </c>
-      <c r="B304" t="s">
-        <v>226</v>
+      <c r="B304" s="4" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
         <v>43769</v>
       </c>
-      <c r="B305" t="s">
-        <v>227</v>
+      <c r="B305" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="6">
         <v>43770</v>
       </c>
-      <c r="B306" t="s">
-        <v>228</v>
+      <c r="B306" s="4" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
         <v>43771</v>
       </c>
-      <c r="B307" t="s">
-        <v>49</v>
+      <c r="B307" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="6">
         <v>43772</v>
       </c>
-      <c r="B308" t="s">
-        <v>229</v>
+      <c r="B308" s="4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="6">
         <v>43773</v>
       </c>
-      <c r="B309" t="s">
-        <v>230</v>
+      <c r="B309" s="4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="6">
         <v>43774</v>
       </c>
-      <c r="B310" t="s">
-        <v>118</v>
+      <c r="B310" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="6">
         <v>43775</v>
       </c>
-      <c r="B311" t="s">
-        <v>231</v>
+      <c r="B311" s="4" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="6">
         <v>43776</v>
       </c>
-      <c r="B312" t="s">
-        <v>232</v>
+      <c r="B312" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="6">
         <v>43777</v>
       </c>
-      <c r="B313" t="s">
-        <v>233</v>
+      <c r="B313" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="6">
         <v>43778</v>
       </c>
-      <c r="B314" t="s">
-        <v>234</v>
+      <c r="B314" s="4" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="6">
         <v>43779</v>
       </c>
-      <c r="B315" t="s">
-        <v>114</v>
+      <c r="B315" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="6">
         <v>43780</v>
       </c>
-      <c r="B316" t="s">
-        <v>225</v>
+      <c r="B316" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="6">
         <v>43781</v>
       </c>
-      <c r="B317" t="s">
-        <v>235</v>
+      <c r="B317" s="4" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
         <v>43782</v>
       </c>
-      <c r="B318" t="s">
-        <v>236</v>
+      <c r="B318" s="4" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="6">
         <v>43783</v>
       </c>
-      <c r="B319" t="s">
-        <v>154</v>
+      <c r="B319" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="6">
         <v>43784</v>
       </c>
-      <c r="B320" t="s">
-        <v>76</v>
+      <c r="B320" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="6">
         <v>43785</v>
       </c>
-      <c r="B321" t="s">
-        <v>237</v>
+      <c r="B321" s="4" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="6">
         <v>43786</v>
       </c>
-      <c r="B322" t="s">
-        <v>238</v>
+      <c r="B322" s="4" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="6">
         <v>43787</v>
       </c>
-      <c r="B323" t="s">
-        <v>239</v>
+      <c r="B323" s="4" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="6">
         <v>43788</v>
       </c>
-      <c r="B324" t="s">
-        <v>240</v>
+      <c r="B324" s="4" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="6">
         <v>43789</v>
       </c>
-      <c r="B325" t="s">
-        <v>241</v>
+      <c r="B325" s="4" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="6">
         <v>43790</v>
       </c>
-      <c r="B326" t="s">
-        <v>242</v>
+      <c r="B326" s="4" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="6">
         <v>43791</v>
       </c>
-      <c r="B327" t="s">
-        <v>243</v>
+      <c r="B327" s="4" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="6">
         <v>43792</v>
       </c>
-      <c r="B328" t="s">
-        <v>244</v>
+      <c r="B328" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
         <v>43793</v>
       </c>
-      <c r="B329" t="s">
-        <v>245</v>
+      <c r="B329" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="6">
         <v>43794</v>
       </c>
-      <c r="B330" t="s">
-        <v>246</v>
+      <c r="B330" s="4" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="6">
         <v>43795</v>
       </c>
-      <c r="B331" t="s">
-        <v>247</v>
+      <c r="B331" s="4" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="6">
         <v>43796</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15512,7 +15536,7 @@
       <c r="A333" s="6">
         <v>43797</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -15520,159 +15544,159 @@
       <c r="A334" s="6">
         <v>43798</v>
       </c>
-      <c r="B334" t="s">
-        <v>63</v>
+      <c r="B334" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="6">
         <v>43799</v>
       </c>
-      <c r="B335" t="s">
-        <v>248</v>
+      <c r="B335" s="4" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="6">
         <v>43800</v>
       </c>
-      <c r="B336" t="s">
-        <v>249</v>
+      <c r="B336" s="4" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="6">
         <v>43801</v>
       </c>
-      <c r="B337" t="s">
-        <v>42</v>
+      <c r="B337" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="6">
         <v>43802</v>
       </c>
-      <c r="B338" t="s">
-        <v>250</v>
+      <c r="B338" s="4" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="6">
         <v>43803</v>
       </c>
-      <c r="B339" t="s">
-        <v>251</v>
+      <c r="B339" s="4" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="6">
         <v>43804</v>
       </c>
-      <c r="B340" t="s">
-        <v>252</v>
+      <c r="B340" s="4" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="6">
         <v>43805</v>
       </c>
-      <c r="B341" t="s">
-        <v>253</v>
+      <c r="B341" s="4" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="6">
         <v>43806</v>
       </c>
-      <c r="B342" t="s">
-        <v>254</v>
+      <c r="B342" s="4" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="6">
         <v>43807</v>
       </c>
-      <c r="B343" t="s">
-        <v>63</v>
+      <c r="B343" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="6">
         <v>43808</v>
       </c>
-      <c r="B344" t="s">
-        <v>255</v>
+      <c r="B344" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="6">
         <v>43809</v>
       </c>
-      <c r="B345" t="s">
-        <v>256</v>
+      <c r="B345" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="6">
         <v>43810</v>
       </c>
-      <c r="B346" t="s">
-        <v>257</v>
+      <c r="B346" s="4" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="6">
         <v>43811</v>
       </c>
-      <c r="B347" t="s">
-        <v>258</v>
+      <c r="B347" s="4" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="6">
         <v>43812</v>
       </c>
-      <c r="B348" t="s">
-        <v>259</v>
+      <c r="B348" s="4" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="6">
         <v>43813</v>
       </c>
-      <c r="B349" t="s">
-        <v>128</v>
+      <c r="B349" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="6">
         <v>43814</v>
       </c>
-      <c r="B350" t="s">
-        <v>211</v>
+      <c r="B350" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="6">
         <v>43815</v>
       </c>
-      <c r="B351" t="s">
-        <v>260</v>
+      <c r="B351" s="4" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="6">
         <v>43816</v>
       </c>
-      <c r="B352" t="s">
-        <v>261</v>
+      <c r="B352" s="4" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="6">
         <v>43817</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -15680,98 +15704,104 @@
       <c r="A354" s="6">
         <v>43818</v>
       </c>
-      <c r="B354" t="s">
-        <v>262</v>
+      <c r="B354" s="4" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="6">
         <v>43819</v>
       </c>
-      <c r="B355" t="s">
-        <v>195</v>
+      <c r="B355" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="6">
         <v>43820</v>
       </c>
-      <c r="B356" t="s">
-        <v>263</v>
+      <c r="B356" s="4" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="6">
         <v>43821</v>
       </c>
-      <c r="B357" t="s">
-        <v>264</v>
+      <c r="B357" s="4" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="6">
         <v>43822</v>
       </c>
-      <c r="B358" t="s">
-        <v>265</v>
+      <c r="B358" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="6">
         <v>43823</v>
       </c>
-      <c r="B359" t="s">
-        <v>266</v>
+      <c r="B359" s="4" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="6">
         <v>43824</v>
       </c>
-      <c r="B360" t="s">
-        <v>267</v>
+      <c r="B360" s="4" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="6">
         <v>43825</v>
       </c>
-      <c r="B361" t="s">
-        <v>164</v>
+      <c r="B361" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="6">
         <v>43826</v>
       </c>
-      <c r="B362" t="s">
-        <v>177</v>
+      <c r="B362" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="6">
         <v>43827</v>
       </c>
-      <c r="B363" t="s">
-        <v>268</v>
+      <c r="B363" s="4" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="6">
         <v>43828</v>
       </c>
-      <c r="B364" t="s">
-        <v>40</v>
+      <c r="B364" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="6">
         <v>43829</v>
       </c>
+      <c r="B365" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="6">
         <v>43830</v>
+      </c>
+      <c r="B366" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
